--- a/data/output/bases-separadas/-10.xlsx
+++ b/data/output/bases-separadas/-10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A101"/>
+  <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,1210 @@
           <t>cnpj</t>
         </is>
       </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cnae</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>17322208000120</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>05820332000136</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>90804378000130</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>05111993000192</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>12607758000171</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>08928472000110</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>11768297000156</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>08392956000279</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>7203652000172</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>02477478000132</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>873894001791</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>04479175000184</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7446868000169</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>04453613000135</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>13426484000187</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>08841099000166</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>24140174000118</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>05400006000170</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>17490345000173</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>01548410000134</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>13094409000166</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>03647627000127</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>83068718000147</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>0510295000146</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>24710993000153</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>0915053000132</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>20246049000136</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>05952971000236</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>164308000172</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>03445208000455</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>10965693000291</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>09051032000190</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>6036371000100</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>07322866000168</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>23228205000124</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>04320901000111</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>23228367000162</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>02491558002005</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>64787864000188</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>01731592000184</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>17533095000101</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0482840000138</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>7778002000155</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>07500217000100</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>17165013000113</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>05631568000124</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>15287403000130</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>09573926000140</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>470127000174</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>07280328003092</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>4834947000159</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>0811544000133</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>4773174000148</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>0873894001872</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>3021735000190</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>08579364000180</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>9420658000127</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>05644974000121</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>18093163000121</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>07143071000192</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>91494765000180</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>04857522000165</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>5682451000170</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>02491558002196</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>11720733000117</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>09573190000100</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>3192800000140</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>07025586000198</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>18081385000124</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>0942557000141</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>8656997000144</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>08440584000128</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>7709134000125</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>05743288000108</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>284975000199</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>07549627000145</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>16733600000107</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>07009365000126</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>65584195000100</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>04063331000121</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>8933586000159</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>07272615000205</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>18180217000196</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>09231005000108</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>74744608000167</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>09813030000191</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>25970787000145</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>0888602000127</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>21921129000102</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>04277023000107</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>67837963000115</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>04006127000250</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>74469495000139</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>0420378000144</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>3019103000191</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>09212665000133</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>70177571000181</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>02883590000173</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>18618889000130</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>02491558001629</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>91727099000183</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>09458666000162</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>16834965000110</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>05920305000135</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>17514710000302</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>08035135000102</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>7550674000109</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>02993039000182</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>18681483000100</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>02545405000130</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>8602078000198</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>07732798000105</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>4181281000187</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>06087631000176</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>7536617000175</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>01061837000103</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>3342856000133</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>07717961000160</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>8106118000100</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>04690106000115</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>4146206000185</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>05824468000114</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>22300718000136</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>07160370000135</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>10845680000106</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>03367302000190</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>5311153000173</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>04088052000384</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>12184071000170</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>08532353000144</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>8679066000161</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>03608196000190</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>6962844000108</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>04243527000106</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>21379456000184</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>05875741000130</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>1650167000160</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>06272575000140</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>70091558000105</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>07676627000106</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>17328359000195</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>07738093000103</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>11621750000105</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>02977362000162</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>56642960000100</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>04431307000106</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>51266203003695</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>08353632000140</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>12984111000169</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>05142705000167</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>22386111000110</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>01089566000102</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>75511000172</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>05524540000198</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>14876241000103</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>01666158000168</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>47966890000154</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>02846626000149</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>14904799000155</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>09372903000178</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>12605120000100</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>07123981000103</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>49319411000133</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>07916196000612</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>19026206000119</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>08713403000432</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>1787793002147</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>0770050000310</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>4844206000159</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>02003402005134</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>1958002000150</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>02003402006700</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>3759926000153</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>07518963000120</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>26871168000166</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>09223426000189</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>13384915000190</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>04411691000177</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>13426763000140</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>08103773000105</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>7268509000169</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>04472753000150</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>16900062000190</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>04823996000196</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>22233359000141</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>08435972000110</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>10957507000191</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>09489167000132</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>26039266000131</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>07218633000110</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>11634302000138</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>08798132000112</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>29920394000188</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>04725484000197</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>19417231000123</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>08712138000125</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>19336235000187</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>0372383000129</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>5737091000166</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>09153955000153</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>cnpj nao encontrado</t>
+        </is>
       </c>
     </row>
   </sheetData>
